--- a/files/feature_importance.xlsx
+++ b/files/feature_importance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimpuleumoe/kakaobank_ml/submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimpuleumoe/kakaobank_ml/ml_prediction_task/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1FE72B-E6B5-7C4F-AADB-D65C083D37BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{381B70C1-D9A1-6042-822C-4A56A2F77660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="217">
   <si>
     <t>click_timestamp</t>
   </si>
@@ -229,147 +229,45 @@
     <t xml:space="preserve"> categorical_feature_3_20</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_4</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_7</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_10</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_12</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_13</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_4_17</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_18</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_4_19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_4_20</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_5_3</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_5_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_5_9</t>
   </si>
   <si>
     <t xml:space="preserve"> categorical_feature_5_10</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_5_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_14</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_5_15</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_5_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_5_18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_5_19</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_5_20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_6_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_6_4</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_6_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_6_8</t>
   </si>
   <si>
@@ -379,69 +277,18 @@
     <t xml:space="preserve"> categorical_feature_6_10</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_6_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_6_18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_6_19</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_6_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_7_2</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_7_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_7_7</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_7_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_7_10</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_7_11</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_7_12</t>
   </si>
   <si>
@@ -460,45 +307,15 @@
     <t xml:space="preserve"> categorical_feature_7_17</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_7_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_7_19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_7_20</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_8_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_8_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_8_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_8_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_8_5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_3</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_6</t>
   </si>
   <si>
@@ -508,182 +325,49 @@
     <t xml:space="preserve"> categorical_feature_9_8</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_10</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_11</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_13</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_14</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_15</t>
-  </si>
-  <si>
     <t xml:space="preserve"> categorical_feature_9_16</t>
   </si>
   <si>
-    <t xml:space="preserve"> categorical_feature_9_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> categorical_feature_9_20</t>
-  </si>
-  <si>
-    <t>Feature name</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Importance</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg_int1</t>
-  </si>
-  <si>
-    <t>avg_int1_5</t>
-  </si>
-  <si>
-    <t>avg_int1_10</t>
-  </si>
-  <si>
-    <t>avg_int2</t>
-  </si>
-  <si>
-    <t>avg_int2_5</t>
-  </si>
-  <si>
-    <t>avg_int2_10</t>
-  </si>
-  <si>
-    <t>avg_int3</t>
-  </si>
-  <si>
     <t>avg_int3_5</t>
   </si>
   <si>
     <t>avg_int3_10</t>
   </si>
   <si>
-    <t>avg_int4</t>
-  </si>
-  <si>
     <t>avg_int4_5</t>
   </si>
   <si>
     <t>avg_int4_10</t>
   </si>
   <si>
-    <t>avg_int5</t>
-  </si>
-  <si>
     <t>avg_int5_5</t>
   </si>
   <si>
     <t>avg_int5_10</t>
   </si>
   <si>
-    <t>avg_int6</t>
-  </si>
-  <si>
-    <t>avg_int6_5</t>
-  </si>
-  <si>
     <t>avg_int6_10</t>
   </si>
   <si>
-    <t>avg_int7</t>
-  </si>
-  <si>
     <t>avg_int7_5</t>
   </si>
   <si>
     <t>avg_int7_10</t>
   </si>
   <si>
-    <t>avg_int8</t>
-  </si>
-  <si>
     <t>avg_int8_5</t>
-  </si>
-  <si>
-    <t>avg_int8_10</t>
-  </si>
-  <si>
-    <t>인공신경망의 특징 중요도(feature importance)는 gradient importance, perturbance importance등의 기법 등을 통해 분석할 수 있음</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러나 본 과제의 최종 모델은 다수의 category features를 임베딩하므로 이러한 방식으로 중요도를 측정하기 어려움</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>std_int2</t>
-  </si>
-  <si>
-    <t>std_int1</t>
-  </si>
-  <si>
-    <t>std_int7</t>
-  </si>
-  <si>
-    <t>std_int6</t>
-  </si>
-  <si>
-    <t>std_int3</t>
-  </si>
-  <si>
-    <t>std_int5</t>
-  </si>
-  <si>
-    <t>std_int4_5</t>
-  </si>
-  <si>
-    <t>std_int7_5</t>
-  </si>
-  <si>
-    <t>std_int8</t>
-  </si>
-  <si>
-    <t>std_int2_5</t>
-  </si>
-  <si>
-    <t>std_int3_10</t>
-  </si>
-  <si>
-    <t>std_int4</t>
-  </si>
-  <si>
-    <t>std_int1_5</t>
-  </si>
-  <si>
-    <t>std_int2_10</t>
-  </si>
-  <si>
-    <t>std_int6_5</t>
-  </si>
-  <si>
-    <t>std_int7_10</t>
-  </si>
-  <si>
     <t>std_int8_5</t>
   </si>
   <si>
@@ -708,51 +392,296 @@
     <t>std_int5_5</t>
   </si>
   <si>
-    <t>정수형 변수2의 현재와 바로 직전 시점의 평균값</t>
+    <t xml:space="preserve"> categorical_feature_1_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_1_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_2_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> categorical_feature_3_42</t>
+  </si>
+  <si>
+    <t>Feature</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>범주형 변수8의 주성분1</t>
+    <t>importance</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수1의 현재와 바로 직전 시점의 평균값</t>
+    <t>정수형 변수 1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수2의 현재와 바로 직전 시점의 표준편차</t>
+    <t>정수형 변수 2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수 1의 현재 값</t>
+    <t>정수형 변수 8</t>
+  </si>
+  <si>
+    <t>정수형 변수 4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수8의 현재 값</t>
+    <t>정수형 변수 7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>범주형 변수8의 주성분3</t>
+    <t>정수형 변수 6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수 2의 현재 값</t>
+    <t>정수형 변수 3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수 3의 현재 값</t>
+    <t>정수형 변수 5</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정수형 변수 4의 현재 값</t>
+    <t>범주형 변수 3의 28번째 주성분</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PCA를 이용한 모델의 validation accuacy는 0.8329, 임베딩 모델의 경우 0.8357를 기록하였으며 전자의 perturbance importance를 측정함</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대안으로 임베딩이 아닌 주성분분석을 이용하여 one-hot-encoding category matrix를 차원 축소 한 뒤 항목별 주성분을 매칭시켜 비슷한 성능의 모델을 훈련</t>
+    <t>범주형 변수 3의 9번째 주성분</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1379,7 +1308,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,15 +1404,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Feature</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Importance</a:t>
+              <a:t>Feature Importance</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1533,7 +1454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Importance</c:v>
+                  <c:v>importance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1550,84 +1471,90 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>feature_importance_table!$A$2:$A$11</c:f>
+              <c:f>feature_importance_table!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>avg_int2</c:v>
+                  <c:v> integer_feature_1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v> integer_feature_2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> integer_feature_4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> integer_feature_6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> integer_feature_7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> integer_feature_3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> integer_feature_5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v> integer_feature_8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v> categorical_feature_8_5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>avg_int1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>std_int2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v> integer_feature_1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v> categorical_feature_8_3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> integer_feature_2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v> integer_feature_3</c:v>
+                  <c:v> categorical_feature_3_22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> integer_feature_4</c:v>
+                  <c:v> categorical_feature_3_41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> categorical_feature_3_42</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>feature_importance_table!$B$2:$B$11</c:f>
+              <c:f>feature_importance_table!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.6199999999999999E-2</c:v>
+                  <c:v>2.3900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0999999999999996E-3</c:v>
+                  <c:v>1.83E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9000000000000008E-3</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7999999999999996E-3</c:v>
+                  <c:v>1.3599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7999999999999996E-3</c:v>
+                  <c:v>1.2800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>6.7000000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>4.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5999999999999999E-3</c:v>
+                  <c:v>3.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83D3-6A4F-A83C-6A6A54E74DEB}"/>
+              <c16:uniqueId val="{00000000-8F40-7B47-8DFB-92D7E0DFA541}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1641,11 +1568,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="647391136"/>
-        <c:axId val="647392784"/>
+        <c:axId val="1601782463"/>
+        <c:axId val="1601780479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="647391136"/>
+        <c:axId val="1601782463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1688,15 +1615,15 @@
             <a:endParaRPr lang="ko-Kore-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647392784"/>
+        <c:crossAx val="1601780479"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
+        <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647392784"/>
+        <c:axId val="1601780479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1659,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1747,7 +1674,7 @@
             <a:endParaRPr lang="ko-Kore-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647391136"/>
+        <c:crossAx val="1601782463"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,22 +2278,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>71213</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>36438</xdr:rowOff>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3097851</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499532</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>18579</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDE91B3-AA3E-DB47-A0D2-AF7B2366FAD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A205E8-7C51-7440-A6A9-2730FA42CB9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,1872 +2611,1869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>175</v>
+      <c r="A1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1.83E-2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11">
+        <v>3.8E-3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="1">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6.3E-3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4.1000000000000003E-3</v>
+      <c r="B17">
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="2">
-        <v>4.1000000000000003E-3</v>
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18">
+        <v>2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3.8999999999999998E-3</v>
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3.8E-3</v>
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>200</v>
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>201</v>
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>238</v>
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23">
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>237</v>
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2.8E-3</v>
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2.8E-3</v>
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.7000000000000001E-3</v>
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="E28" s="5"/>
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28">
+        <v>1.5E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2.5999999999999999E-3</v>
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30">
+        <v>1.4E-3</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="D31" s="4"/>
+      <c r="B31">
+        <v>1.4E-3</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2.5000000000000001E-3</v>
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2.5000000000000001E-3</v>
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2.3999999999999998E-3</v>
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2.3999999999999998E-3</v>
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2.3E-3</v>
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2.3E-3</v>
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2.3E-3</v>
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2.3E-3</v>
-      </c>
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>180</v>
       </c>
-      <c r="B40" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1.9E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="2">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1.6000000000000001E-3</v>
+      <c r="B56">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B57" s="2">
-        <v>1.6000000000000001E-3</v>
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1.6000000000000001E-3</v>
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1.6000000000000001E-3</v>
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1.5E-3</v>
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2">
-        <v>1.5E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="2">
-        <v>1.5E-3</v>
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.5E-3</v>
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="2">
-        <v>1.4E-3</v>
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68">
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2">
-        <v>1.4E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B78" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B81" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B88" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A88" t="s">
+        <v>141</v>
+      </c>
+      <c r="B88">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B91" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A91" t="s">
+        <v>163</v>
+      </c>
+      <c r="B91">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B92" s="2">
-        <v>1.1999999999999999E-3</v>
+      <c r="A92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="2">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1.1000000000000001E-3</v>
+      <c r="B96">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="B98" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B99" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B100" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B101" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B102" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="B103" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="B104" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B105" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B106" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B107" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B108" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B117" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2">
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="2">
-        <v>1E-3</v>
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1E-3</v>
+      <c r="A120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B120">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1E-3</v>
+      <c r="A121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B122" s="2">
-        <v>1E-3</v>
+      <c r="A122" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1E-3</v>
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1E-3</v>
+      <c r="A124" t="s">
+        <v>47</v>
+      </c>
+      <c r="B124">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1E-3</v>
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B126" s="2">
-        <v>1E-3</v>
+      <c r="A126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B126">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B127" s="2">
-        <v>1E-3</v>
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1E-3</v>
+      <c r="A128" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1E-3</v>
+      <c r="A129" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B130" s="2">
-        <v>1E-3</v>
+      <c r="A130" t="s">
+        <v>55</v>
+      </c>
+      <c r="B130">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B131" s="2">
-        <v>1E-3</v>
+      <c r="A131" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B132" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B133" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B134" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B135" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B136" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B137" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B138" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B139" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B140" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B141" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B142" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B143" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B144" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B145" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B146" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B147" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="B148" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="B149" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="B150" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="B151" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="B152" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="B153" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="B154" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="B155" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B156" s="2">
-        <v>8.9999999999999998E-4</v>
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B158" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A158" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B159" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A159" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B160" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A160" t="s">
+        <v>127</v>
+      </c>
+      <c r="B160">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B161" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A161" t="s">
+        <v>130</v>
+      </c>
+      <c r="B161">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B162" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A162" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B163" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A163" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B164" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A164" t="s">
+        <v>147</v>
+      </c>
+      <c r="B164">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B165" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B166" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A166" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B167" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B168" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
-        <v>8.0000000000000004E-4</v>
+      <c r="A169" t="s">
+        <v>36</v>
+      </c>
+      <c r="B169">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>190</v>
       </c>
-      <c r="B170" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B171" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B172" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B173" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B175" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B176" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B177" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B178" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="B178">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B179" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A179" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B180" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B181" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B182" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B183" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A183" t="s">
+        <v>133</v>
+      </c>
+      <c r="B183">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B184" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A184" t="s">
+        <v>143</v>
+      </c>
+      <c r="B184">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B185" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A185" t="s">
+        <v>146</v>
+      </c>
+      <c r="B185">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B186" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A186" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B187" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B188" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B189" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A189" t="s">
+        <v>62</v>
+      </c>
+      <c r="B189">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B190" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B191" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="B191">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B192" s="2">
-        <v>6.9999999999999999E-4</v>
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="B193" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="B194" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B195" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B197" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A197" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
+        <v>144</v>
+      </c>
+      <c r="B198">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B198" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B199" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B200" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="B200">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B201" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A201" t="s">
+        <v>37</v>
+      </c>
+      <c r="B201">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B202" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B203" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A203" t="s">
+        <v>42</v>
+      </c>
+      <c r="B203">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B204" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A204" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B205" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A205" t="s">
+        <v>160</v>
+      </c>
+      <c r="B205">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B206" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A206" t="s">
+        <v>162</v>
+      </c>
+      <c r="B206">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B207" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A207" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B208" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A208" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B209" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A209" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B210" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A210" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B211" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A211" t="s">
+        <v>188</v>
+      </c>
+      <c r="B211">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B212" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A212" t="s">
+        <v>191</v>
+      </c>
+      <c r="B212">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B213" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A213" t="s">
+        <v>15</v>
+      </c>
+      <c r="B213">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B214" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B215" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A215" t="s">
+        <v>31</v>
+      </c>
+      <c r="B215">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B216" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A216" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B217" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A217" t="s">
+        <v>43</v>
+      </c>
+      <c r="B217">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B218" s="2">
-        <v>5.9999999999999995E-4</v>
+      <c r="A218" t="s">
+        <v>167</v>
+      </c>
+      <c r="B218">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B219" s="2">
-        <v>5.0000000000000001E-4</v>
+      <c r="A219" t="s">
+        <v>179</v>
+      </c>
+      <c r="B219">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B220" s="2">
-        <v>5.0000000000000001E-4</v>
+      <c r="A220" t="s">
+        <v>57</v>
+      </c>
+      <c r="B220">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B221" s="2">
-        <v>4.0000000000000002E-4</v>
+      <c r="A221" t="s">
+        <v>201</v>
+      </c>
+      <c r="B221">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B222" s="2">
-        <v>4.0000000000000002E-4</v>
+      <c r="A222" t="s">
+        <v>25</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B223" s="2">
-        <v>4.0000000000000002E-4</v>
+      <c r="A223" t="s">
+        <v>27</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>150</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B223">
-    <sortCondition descending="1" ref="B1:B223"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C224">
+    <sortCondition descending="1" ref="B1:B224"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
